--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0612D904-4302-49FC-AD9A-D6B8D6EE2493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CF8ED-3BD2-4967-8F90-6C4CA865AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Test</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>project-2.spec.ts</t>
+  </si>
+  <si>
+    <t>contract-1.spec.ts</t>
+  </si>
+  <si>
+    <t>contract-2.spec.ts</t>
   </si>
 </sst>
 </file>
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="D5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,52 +886,104 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="D13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6">
+        <v>7</v>
+      </c>
+      <c r="L13" s="6">
+        <v>11</v>
+      </c>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="12"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="19">
+        <v>75</v>
+      </c>
+      <c r="G14" s="25">
+        <v>50</v>
+      </c>
+      <c r="H14" s="20">
+        <v>74</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="D15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="21">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="22">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6">
+        <v>9</v>
+      </c>
+      <c r="L15" s="6">
+        <v>12</v>
+      </c>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="12"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="19">
+        <v>81</v>
+      </c>
+      <c r="G16" s="25">
+        <v>50</v>
+      </c>
+      <c r="H16" s="20">
+        <v>80</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D17" s="11"/>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CF8ED-3BD2-4967-8F90-6C4CA865AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011ABAE2-692E-416D-9764-2CBB9CA4A827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Test</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>contract-2.spec.ts</t>
+  </si>
+  <si>
+    <t>report-1.spec.ts</t>
+  </si>
+  <si>
+    <t>gender-report-service</t>
+  </si>
+  <si>
+    <t>universal-data-to-excel</t>
+  </si>
+  <si>
+    <t>result-to-universal-report-data</t>
+  </si>
+  <si>
+    <t>third-party-eval-report-service</t>
+  </si>
+  <si>
+    <t>report-2.spec.ts</t>
   </si>
 </sst>
 </file>
@@ -690,14 +708,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="D5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -986,47 +1004,89 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="11"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="21">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2">
+        <v>60</v>
+      </c>
+      <c r="H17" s="22">
+        <v>98</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6">
+        <v>24</v>
+      </c>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="12"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="19">
+        <v>51</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>52</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="11"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="25">
+        <v>78</v>
+      </c>
+      <c r="G19" s="25">
+        <v>41</v>
+      </c>
+      <c r="H19" s="20">
+        <v>78</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="12"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="23">
+        <v>78</v>
+      </c>
+      <c r="G20" s="3">
+        <v>60</v>
+      </c>
+      <c r="H20" s="24">
+        <v>78</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1034,47 +1094,91 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="11"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="D21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="21">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2">
+        <v>60</v>
+      </c>
+      <c r="H21" s="22">
+        <v>98</v>
+      </c>
+      <c r="I21" s="6">
+        <v>6</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6">
+        <v>12</v>
+      </c>
+      <c r="L21" s="6">
+        <v>24</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="12"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="19">
+        <v>90</v>
+      </c>
+      <c r="G22" s="25">
+        <v>41</v>
+      </c>
+      <c r="H22" s="20">
+        <v>91</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="25">
+        <v>55</v>
+      </c>
+      <c r="G23" s="25">
+        <v>32</v>
+      </c>
+      <c r="H23" s="20">
+        <v>55</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D24" s="12"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="24"/>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="23">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3">
+        <v>60</v>
+      </c>
+      <c r="H24" s="24">
+        <v>78</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1094,16 +1198,16 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D27" s="10"/>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011ABAE2-692E-416D-9764-2CBB9CA4A827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E4B668-B6CB-4665-924F-772F9C94E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Test</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>report-2.spec.ts</t>
+  </si>
+  <si>
+    <t>person-1.spec.ts</t>
+  </si>
+  <si>
+    <t>person-excel-helper</t>
+  </si>
+  <si>
+    <t>person-2.spec.ts</t>
   </si>
 </sst>
 </file>
@@ -709,7 +718,7 @@
   <dimension ref="D5:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,23 +1195,51 @@
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="21">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2">
+        <v>100</v>
+      </c>
+      <c r="H25" s="22">
+        <v>71</v>
+      </c>
+      <c r="I25" s="6">
+        <v>15</v>
+      </c>
+      <c r="J25" s="6">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6">
+        <v>15</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="20"/>
+      <c r="E26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="19">
+        <v>30</v>
+      </c>
+      <c r="G26" s="25">
+        <v>6</v>
+      </c>
+      <c r="H26" s="20">
+        <v>30</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1210,35 +1247,69 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3">
+        <v>38</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15</v>
+      </c>
+      <c r="H27" s="24">
+        <v>39</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="D28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="21">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100</v>
+      </c>
+      <c r="H28" s="22">
+        <v>71</v>
+      </c>
+      <c r="I28" s="6">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6">
+        <v>8</v>
+      </c>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="19">
+        <v>30</v>
+      </c>
+      <c r="G29" s="25">
+        <v>6</v>
+      </c>
+      <c r="H29" s="20">
+        <v>30</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1246,16 +1317,24 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>12</v>
+      </c>
+      <c r="H30" s="24">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="10"/>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E4B668-B6CB-4665-924F-772F9C94E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5700787-42B6-4E5D-BB34-91048640BFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Test</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>person-2.spec.ts</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>ohne</t>
+  </si>
+  <si>
+    <t>Controller</t>
   </si>
 </sst>
 </file>
@@ -144,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +187,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -345,11 +363,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -376,6 +446,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -715,20 +801,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:M32"/>
+  <dimension ref="C3:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="13" width="15.7109375" customWidth="1"/>
+    <col min="6" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="32"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -759,8 +852,18 @@
       <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="32"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19"/>
@@ -771,8 +874,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N6" s="19"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="32"/>
       <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
@@ -801,8 +908,21 @@
         <v>22</v>
       </c>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N7" s="21">
+        <f>ROUND(AVERAGE(F8:F9),0)</f>
+        <v>70</v>
+      </c>
+      <c r="O7" s="2">
+        <f>ROUND(AVERAGE(G8:G9),0)</f>
+        <v>23</v>
+      </c>
+      <c r="P7" s="22">
+        <f>ROUND(AVERAGE(H8:H9),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="32"/>
       <c r="D8" s="10"/>
       <c r="E8" s="14" t="s">
         <v>11</v>
@@ -821,8 +941,12 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N8" s="19"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="32"/>
       <c r="D9" s="12"/>
       <c r="E9" s="16" t="s">
         <v>13</v>
@@ -840,9 +964,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M9" s="35"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="32"/>
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
@@ -871,8 +999,21 @@
         <v>17</v>
       </c>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N10" s="21">
+        <f>ROUND(AVERAGE(F11:F12),0)</f>
+        <v>78</v>
+      </c>
+      <c r="O10" s="2">
+        <f>ROUND(AVERAGE(G11:G12),0)</f>
+        <v>41</v>
+      </c>
+      <c r="P10" s="22">
+        <f>ROUND(AVERAGE(H11:H12),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="32"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>11</v>
@@ -891,8 +1032,12 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N11" s="19"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="32"/>
       <c r="D12" s="12"/>
       <c r="E12" s="16" t="s">
         <v>13</v>
@@ -910,9 +1055,13 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M12" s="35"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="32"/>
       <c r="D13" s="11" t="s">
         <v>15</v>
       </c>
@@ -941,8 +1090,21 @@
         <v>11</v>
       </c>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N13" s="21">
+        <f>ROUND(AVERAGE(F14),0)</f>
+        <v>75</v>
+      </c>
+      <c r="O13" s="2">
+        <f>ROUND(AVERAGE(G14),0)</f>
+        <v>50</v>
+      </c>
+      <c r="P13" s="22">
+        <f>ROUND(AVERAGE(H14),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="32"/>
       <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
         <v>11</v>
@@ -961,8 +1123,12 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N14" s="19"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="32"/>
       <c r="D15" s="11" t="s">
         <v>16</v>
       </c>
@@ -991,8 +1157,21 @@
         <v>12</v>
       </c>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N15" s="21">
+        <f>ROUND(AVERAGE(F16),0)</f>
+        <v>81</v>
+      </c>
+      <c r="O15" s="2">
+        <f>ROUND(AVERAGE(G16),0)</f>
+        <v>50</v>
+      </c>
+      <c r="P15" s="22">
+        <f>ROUND(AVERAGE(H16),0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="32"/>
       <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
         <v>11</v>
@@ -1011,8 +1190,12 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N16" s="19"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="32"/>
       <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1041,8 +1224,21 @@
         <v>24</v>
       </c>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N17" s="21">
+        <f>ROUND(AVERAGE(F17:F20),0)</f>
+        <v>76</v>
+      </c>
+      <c r="O17" s="2">
+        <f>ROUND(AVERAGE(G17:G20),0)</f>
+        <v>40</v>
+      </c>
+      <c r="P17" s="22">
+        <f>ROUND(AVERAGE(H17:H20),0)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="32"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
         <v>18</v>
@@ -1061,8 +1257,12 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N18" s="19"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="32"/>
       <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
         <v>19</v>
@@ -1080,9 +1280,13 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M19" s="36"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="32"/>
       <c r="D20" s="12"/>
       <c r="E20" s="16" t="s">
         <v>20</v>
@@ -1101,8 +1305,12 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N20" s="23"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
       <c r="D21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1133,8 +1341,21 @@
       <c r="M21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N21" s="21">
+        <f>ROUND(AVERAGE(F21:F24),0)</f>
+        <v>80</v>
+      </c>
+      <c r="O21" s="2">
+        <f>ROUND(AVERAGE(G21:G24),0)</f>
+        <v>48</v>
+      </c>
+      <c r="P21" s="22">
+        <f>ROUND(AVERAGE(H21:H24),0)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="32"/>
       <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
         <v>18</v>
@@ -1153,8 +1374,12 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N22" s="19"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="32"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14" t="s">
         <v>19</v>
@@ -1172,9 +1397,13 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M23" s="36"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="32"/>
       <c r="D24" s="12"/>
       <c r="E24" s="16" t="s">
         <v>20</v>
@@ -1193,8 +1422,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N24" s="23"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
       <c r="D25" s="11" t="s">
         <v>23</v>
       </c>
@@ -1225,8 +1458,21 @@
       <c r="M25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N25" s="21">
+        <f>ROUND(AVERAGE(F26:F27),0)</f>
+        <v>34</v>
+      </c>
+      <c r="O25" s="2">
+        <f>ROUND(AVERAGE(G26:G27),0)</f>
+        <v>11</v>
+      </c>
+      <c r="P25" s="22">
+        <f>ROUND(AVERAGE(H26:H27),0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
         <v>11</v>
@@ -1245,8 +1491,12 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N26" s="19"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="32"/>
       <c r="D27" s="12"/>
       <c r="E27" s="16" t="s">
         <v>24</v>
@@ -1264,9 +1514,13 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M27" s="35"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="32"/>
       <c r="D28" s="11" t="s">
         <v>25</v>
       </c>
@@ -1295,8 +1549,21 @@
         <v>8</v>
       </c>
       <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N28" s="21">
+        <f>ROUND(AVERAGE(F29:F30),0)</f>
+        <v>29</v>
+      </c>
+      <c r="O28" s="2">
+        <f>ROUND(AVERAGE(G29:G30),0)</f>
+        <v>9</v>
+      </c>
+      <c r="P28" s="22">
+        <f>ROUND(AVERAGE(H29:H30),0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="32"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14" t="s">
         <v>11</v>
@@ -1315,8 +1582,12 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N29" s="19"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
       <c r="D30" s="12"/>
       <c r="E30" s="16" t="s">
         <v>24</v>
@@ -1334,9 +1605,13 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M30" s="35"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="32"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14"/>
       <c r="F31" s="19"/>
@@ -1347,18 +1622,82 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31">
+        <f>SUM(I7:I28)</f>
+        <v>106</v>
+      </c>
+      <c r="J32" s="31">
+        <f>SUM(J7:J28)</f>
+        <v>86</v>
+      </c>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
+        <f>ROUND(AVERAGE(K7:K28),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L33" s="7">
+        <f>ROUND(AVERAGE(L7:L28),0)</f>
+        <v>17</v>
+      </c>
+      <c r="M33" s="37"/>
+      <c r="N33" s="3">
+        <f>ROUND(AVERAGE(N7:N28),0)</f>
+        <v>65</v>
+      </c>
+      <c r="O33" s="3">
+        <f>ROUND(AVERAGE(O7:O28),0)</f>
+        <v>34</v>
+      </c>
+      <c r="P33" s="24">
+        <f>ROUND(AVERAGE(P7:P28),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N35" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5700787-42B6-4E5D-BB34-91048640BFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F810B3-D826-4FE9-86EA-A55BA2DC0B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Test</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Controller</t>
+  </si>
+  <si>
+    <t>abgedeckt</t>
+  </si>
+  <si>
+    <t>insgesamt</t>
+  </si>
+  <si>
+    <t>fehlend</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -460,6 +469,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:P36"/>
+  <dimension ref="C3:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,15 +824,19 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="16" width="15.7109375" customWidth="1"/>
+    <col min="6" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="32"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
@@ -861,8 +877,17 @@
       <c r="P5" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="32"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
@@ -877,8 +902,11 @@
       <c r="N6" s="19"/>
       <c r="O6" s="25"/>
       <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="32"/>
       <c r="D7" s="11" t="s">
         <v>12</v>
@@ -920,8 +948,11 @@
         <f>ROUND(AVERAGE(H8:H9),0)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="32"/>
       <c r="D8" s="10"/>
       <c r="E8" s="14" t="s">
@@ -944,8 +975,11 @@
       <c r="N8" s="19"/>
       <c r="O8" s="25"/>
       <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="32"/>
       <c r="D9" s="12"/>
       <c r="E9" s="16" t="s">
@@ -968,8 +1002,11 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="24"/>
-    </row>
-    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="32"/>
       <c r="D10" s="11" t="s">
         <v>14</v>
@@ -1011,8 +1048,11 @@
         <f>ROUND(AVERAGE(H11:H12),0)</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="32"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
@@ -1035,8 +1075,11 @@
       <c r="N11" s="19"/>
       <c r="O11" s="25"/>
       <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="32"/>
       <c r="D12" s="12"/>
       <c r="E12" s="16" t="s">
@@ -1059,8 +1102,11 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="32"/>
       <c r="D13" s="11" t="s">
         <v>15</v>
@@ -1102,8 +1148,11 @@
         <f>ROUND(AVERAGE(H14),0)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="32"/>
       <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
@@ -1126,8 +1175,11 @@
       <c r="N14" s="19"/>
       <c r="O14" s="25"/>
       <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="11" t="s">
         <v>16</v>
@@ -1169,8 +1221,11 @@
         <f>ROUND(AVERAGE(H16),0)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C16" s="32"/>
       <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
@@ -1193,8 +1248,11 @@
       <c r="N16" s="19"/>
       <c r="O16" s="25"/>
       <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
       <c r="D17" s="11" t="s">
         <v>17</v>
@@ -1236,8 +1294,11 @@
         <f>ROUND(AVERAGE(H17:H20),0)</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18" s="32"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
@@ -1260,8 +1321,11 @@
       <c r="N18" s="19"/>
       <c r="O18" s="25"/>
       <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="32"/>
       <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
@@ -1284,8 +1348,11 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C20" s="32"/>
       <c r="D20" s="12"/>
       <c r="E20" s="16" t="s">
@@ -1308,8 +1375,11 @@
       <c r="N20" s="23"/>
       <c r="O20" s="3"/>
       <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C21" s="32"/>
       <c r="D21" s="11" t="s">
         <v>22</v>
@@ -1353,8 +1423,11 @@
         <f>ROUND(AVERAGE(H21:H24),0)</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="32"/>
       <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
@@ -1377,8 +1450,11 @@
       <c r="N22" s="19"/>
       <c r="O22" s="25"/>
       <c r="P22" s="20"/>
-    </row>
-    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="32"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14" t="s">
@@ -1401,8 +1477,11 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="20"/>
-    </row>
-    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="32"/>
       <c r="D24" s="12"/>
       <c r="E24" s="16" t="s">
@@ -1425,8 +1504,11 @@
       <c r="N24" s="23"/>
       <c r="O24" s="3"/>
       <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="32"/>
       <c r="D25" s="11" t="s">
         <v>23</v>
@@ -1470,8 +1552,11 @@
         <f>ROUND(AVERAGE(H26:H27),0)</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="32"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
@@ -1494,8 +1579,11 @@
       <c r="N26" s="19"/>
       <c r="O26" s="25"/>
       <c r="P26" s="20"/>
-    </row>
-    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="32"/>
       <c r="D27" s="12"/>
       <c r="E27" s="16" t="s">
@@ -1518,8 +1606,11 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="24"/>
-    </row>
-    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="32"/>
       <c r="D28" s="11" t="s">
         <v>25</v>
@@ -1561,8 +1652,11 @@
         <f>ROUND(AVERAGE(H29:H30),0)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="32"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14" t="s">
@@ -1585,8 +1679,11 @@
       <c r="N29" s="19"/>
       <c r="O29" s="25"/>
       <c r="P29" s="20"/>
-    </row>
-    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="32"/>
       <c r="D30" s="12"/>
       <c r="E30" s="16" t="s">
@@ -1609,8 +1706,11 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="24"/>
-    </row>
-    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="32"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14"/>
@@ -1625,8 +1725,11 @@
       <c r="N31" s="19"/>
       <c r="O31" s="25"/>
       <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
         <v>26</v>
       </c>
@@ -1649,8 +1752,11 @@
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
       <c r="P32" s="30"/>
-    </row>
-    <row r="33" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+    </row>
+    <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="34" t="s">
         <v>27</v>
       </c>
@@ -1682,8 +1788,11 @@
         <f>ROUND(AVERAGE(P7:P28),0)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="35" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="N35" s="39" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F810B3-D826-4FE9-86EA-A55BA2DC0B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34446729-AD9A-46A8-9525-5DD29F8AF47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Test</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>fehlend</t>
+  </si>
+  <si>
+    <t>Wesentliche</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,6 +834,9 @@
     <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="38" t="s">
         <v>27</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="R3" s="40" t="s">
         <v>5</v>
@@ -948,8 +954,12 @@
         <f>ROUND(AVERAGE(H8:H9),0)</f>
         <v>70</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="6">
+        <v>9</v>
+      </c>
+      <c r="R7" s="6">
+        <v>9</v>
+      </c>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1048,8 +1058,12 @@
         <f>ROUND(AVERAGE(H11:H12),0)</f>
         <v>78</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="6">
+        <v>9</v>
+      </c>
+      <c r="R10" s="6">
+        <v>9</v>
+      </c>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1148,8 +1162,12 @@
         <f>ROUND(AVERAGE(H14),0)</f>
         <v>74</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="6">
+        <v>5</v>
+      </c>
+      <c r="R13" s="6">
+        <v>5</v>
+      </c>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1221,8 +1239,12 @@
         <f>ROUND(AVERAGE(H16),0)</f>
         <v>80</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="6">
+        <v>5</v>
+      </c>
+      <c r="R15" s="6">
+        <v>5</v>
+      </c>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1294,8 +1316,12 @@
         <f>ROUND(AVERAGE(H17:H20),0)</f>
         <v>77</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="6">
+        <v>4</v>
+      </c>
+      <c r="R17" s="6">
+        <v>4</v>
+      </c>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1423,8 +1449,12 @@
         <f>ROUND(AVERAGE(H21:H24),0)</f>
         <v>81</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="6">
+        <v>4</v>
+      </c>
+      <c r="R21" s="6">
+        <v>4</v>
+      </c>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1552,8 +1582,12 @@
         <f>ROUND(AVERAGE(H26:H27),0)</f>
         <v>35</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="6">
+        <v>8</v>
+      </c>
+      <c r="R25" s="6">
+        <v>8</v>
+      </c>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1652,8 +1686,12 @@
         <f>ROUND(AVERAGE(H29:H30),0)</f>
         <v>30</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="Q28" s="6">
+        <v>8</v>
+      </c>
+      <c r="R28" s="6">
+        <v>8</v>
+      </c>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1752,8 +1790,14 @@
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
       <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
+      <c r="Q32" s="31">
+        <f>SUM(Q7:Q28)</f>
+        <v>52</v>
+      </c>
+      <c r="R32" s="31">
+        <f>SUM(R7:R28)</f>
+        <v>52</v>
+      </c>
       <c r="S32" s="31"/>
     </row>
     <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34446729-AD9A-46A8-9525-5DD29F8AF47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721339A-8439-420D-91FE-C5F4859C5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Test</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Wesentliche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -818,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1306,9 @@
       <c r="L17" s="6">
         <v>24</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
       <c r="N17" s="21">
         <f>ROUND(AVERAGE(F17:F20),0)</f>
         <v>76</v>
@@ -1434,8 +1439,8 @@
       <c r="L21" s="6">
         <v>24</v>
       </c>
-      <c r="M21" s="6">
-        <v>1</v>
+      <c r="M21" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="N21" s="21">
         <f>ROUND(AVERAGE(F21:F24),0)</f>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721339A-8439-420D-91FE-C5F4859C5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4998CE-87C8-418E-8C05-609BAC6B20A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Test</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Std.-Abw.</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -474,11 +483,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,15 +831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:S36"/>
+  <dimension ref="C3:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="18" width="15.7109375" customWidth="1"/>
@@ -841,7 +853,7 @@
       <c r="Q3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1841,21 +1853,137 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
+    <row r="34" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7">
+        <f>MEDIAN(K7:K28)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L34" s="7">
+        <f>MEDIAN(L7:L28)</f>
+        <v>16</v>
+      </c>
+      <c r="M34" s="37"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
     <row r="35" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="N35" s="39" t="s">
+      <c r="C35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
+        <f>ROUND(_xlfn.STDEV.P(K7:K28),1)</f>
+        <v>1.9</v>
+      </c>
+      <c r="L35" s="7">
+        <f>ROUND(_xlfn.STDEV.P(L7:L28),1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="M35" s="37"/>
+      <c r="N35" s="3">
+        <f>ROUND(_xlfn.STDEV.P(N7:N28),1)</f>
+        <v>19.8</v>
+      </c>
+      <c r="O35" s="3">
+        <f>ROUND(_xlfn.STDEV.P(O7:O28),1)</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P35" s="24">
+        <f>ROUND(_xlfn.STDEV.P(P7:P28),1)</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="34"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="34"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P35" s="39" t="s">
+      <c r="P37" s="41" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="34"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/backend/direct/metrics.xlsx
+++ b/generated-tests/pincher/backend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4998CE-87C8-418E-8C05-609BAC6B20A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00AB283-6C1C-4FFE-80A3-6B4A21ED9437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Test</t>
   </si>
@@ -831,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:S38"/>
+  <dimension ref="C3:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,9 +1873,18 @@
         <v>16</v>
       </c>
       <c r="M34" s="37"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="24"/>
+      <c r="N34" s="3">
+        <f>MEDIAN(N7:N28)</f>
+        <v>75.5</v>
+      </c>
+      <c r="O34" s="3">
+        <f>MEDIAN(O7:O28)</f>
+        <v>40.5</v>
+      </c>
+      <c r="P34" s="24">
+        <f>MEDIAN(P7:P28)</f>
+        <v>75.5</v>
+      </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -1973,7 +1982,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="37"/>
       <c r="N38" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O38" s="40" t="s">
         <v>28</v>
@@ -1984,6 +1993,50 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="34"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="34"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
